--- a/德语动词变位.xlsx
+++ b/德语动词变位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2662,12 +2662,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2683,9 +2677,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2695,16 +2686,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2713,13 +2695,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2732,13 +2708,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3072,227 +3072,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C81" sqref="B81:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="17"/>
-    <col min="3" max="3" width="18.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="17" customWidth="1"/>
-    <col min="5" max="5" width="22.75" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="17" style="17" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="17" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="17" customWidth="1"/>
-    <col min="10" max="11" width="11.5" style="17" customWidth="1"/>
-    <col min="12" max="12" width="17.625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="17" customWidth="1"/>
-    <col min="14" max="14" width="9" style="17"/>
-    <col min="15" max="15" width="19.375" style="17" customWidth="1"/>
-    <col min="16" max="16" width="25.25" style="17" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="17"/>
+    <col min="1" max="2" width="9" style="15"/>
+    <col min="3" max="3" width="18.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="17" style="15" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="15" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="15" customWidth="1"/>
+    <col min="10" max="11" width="11.5" style="15" customWidth="1"/>
+    <col min="12" max="12" width="17.625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="15" customWidth="1"/>
+    <col min="14" max="14" width="9" style="15"/>
+    <col min="15" max="15" width="19.375" style="15" customWidth="1"/>
+    <col min="16" max="16" width="25.25" style="15" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3" t="s">
         <v>114</v>
       </c>
@@ -3305,22 +3305,22 @@
       <c r="F11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="19"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>195</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -3335,22 +3335,22 @@
       <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -3365,22 +3365,22 @@
       <c r="F13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -3395,22 +3395,22 @@
       <c r="F14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -3425,1297 +3425,1297 @@
       <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="21" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="22" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="23" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="24" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="19" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="19" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="19" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="19" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="19" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="25" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="26" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="20" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="H42" s="26" t="s">
+      <c r="H42" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H43" s="26" t="s">
+      <c r="H43" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="27" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="15"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="28" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="21" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E49" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="21" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="21" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="21" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="21" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="30" t="s">
         <v>113</v>
       </c>
       <c r="D55" s="30"/>
       <c r="E55" s="30"/>
-      <c r="F55" s="15"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="31" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F56" s="15"/>
+      <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F57" s="15"/>
+      <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="F58" s="15"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="F59" s="15"/>
+      <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F60" s="15"/>
+      <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F61" s="15"/>
+      <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F62" s="15"/>
+      <c r="F62" s="13"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="32" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="33" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="25" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="25" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C67" s="25" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="25" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="25" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="25" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="25" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="34" t="s">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="35" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="F74" s="35" t="s">
+      <c r="F74" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="G74" s="35" t="s">
+      <c r="G74" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="H74" s="35" t="s">
+      <c r="H74" s="26" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E75" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="F75" s="35" t="s">
+      <c r="F75" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="G75" s="35" t="s">
+      <c r="G75" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="H75" s="35" t="s">
+      <c r="H75" s="26" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="E76" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="F76" s="35" t="s">
+      <c r="F76" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="G76" s="35" t="s">
+      <c r="G76" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="H76" s="35" t="s">
+      <c r="H76" s="26" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="E77" s="35" t="s">
+      <c r="E77" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="F77" s="35" t="s">
+      <c r="F77" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="G77" s="35" t="s">
+      <c r="G77" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="H77" s="35" t="s">
+      <c r="H77" s="26" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="E78" s="35" t="s">
+      <c r="E78" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="F78" s="35" t="s">
+      <c r="F78" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="G78" s="35" t="s">
+      <c r="G78" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="H78" s="35" t="s">
+      <c r="H78" s="26" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="D79" s="35" t="s">
+      <c r="D79" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="E79" s="35" t="s">
+      <c r="E79" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="F79" s="35" t="s">
+      <c r="F79" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="G79" s="35" t="s">
+      <c r="G79" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="H79" s="35" t="s">
+      <c r="H79" s="26" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="D80" s="35" t="s">
+      <c r="D80" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="E80" s="35" t="s">
+      <c r="E80" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="F80" s="35" t="s">
+      <c r="F80" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="G80" s="35" t="s">
+      <c r="G80" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="H80" s="35" t="s">
+      <c r="H80" s="26" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="14" t="s">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="12" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="12" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="12" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="12" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="12" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="12" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4739,10 +4739,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4770,7 +4770,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="35" t="s">
         <v>242</v>
       </c>
       <c r="B2" t="s">
@@ -4787,7 +4787,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="11"/>
+      <c r="A3" s="35"/>
       <c r="B3" t="s">
         <v>186</v>
       </c>
@@ -4802,7 +4802,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="11"/>
+      <c r="A4" s="35"/>
       <c r="B4" t="s">
         <v>187</v>
       </c>
@@ -4817,7 +4817,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="11"/>
+      <c r="A5" s="35"/>
       <c r="B5" t="s">
         <v>189</v>
       </c>
@@ -4832,7 +4832,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="11"/>
+      <c r="A6" s="35"/>
       <c r="B6" t="s">
         <v>188</v>
       </c>
@@ -4847,7 +4847,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="11"/>
+      <c r="A7" s="35"/>
       <c r="B7" t="s">
         <v>190</v>
       </c>
@@ -4862,7 +4862,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="11"/>
+      <c r="A8" s="35"/>
       <c r="B8" t="s">
         <v>191</v>
       </c>
@@ -4877,7 +4877,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="11"/>
+      <c r="A9" s="35"/>
       <c r="B9" t="s">
         <v>192</v>
       </c>
@@ -4892,7 +4892,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="11"/>
+      <c r="A10" s="35"/>
       <c r="B10" t="s">
         <v>193</v>
       </c>
@@ -4907,12 +4907,12 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -4945,7 +4945,7 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="35" t="s">
         <v>240</v>
       </c>
       <c r="B15" t="s">
@@ -4973,7 +4973,7 @@
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="11"/>
+      <c r="A16" s="35"/>
       <c r="B16" t="s">
         <v>239</v>
       </c>
@@ -4999,7 +4999,7 @@
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="11"/>
+      <c r="A17" s="35"/>
       <c r="B17" t="s">
         <v>221</v>
       </c>
@@ -5025,7 +5025,7 @@
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="35" t="s">
         <v>241</v>
       </c>
       <c r="B18" t="s">
@@ -5053,7 +5053,7 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="11"/>
+      <c r="A19" s="35"/>
       <c r="B19" t="s">
         <v>215</v>
       </c>
@@ -5079,7 +5079,7 @@
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="11"/>
+      <c r="A20" s="35"/>
       <c r="B20" t="s">
         <v>216</v>
       </c>
@@ -5105,7 +5105,7 @@
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="11"/>
+      <c r="A21" s="35"/>
       <c r="B21" t="s">
         <v>218</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="11"/>
+      <c r="A22" s="35"/>
       <c r="B22" t="s">
         <v>217</v>
       </c>
@@ -5157,7 +5157,7 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="11"/>
+      <c r="A23" s="35"/>
       <c r="B23" t="s">
         <v>219</v>
       </c>
@@ -5183,7 +5183,7 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="11"/>
+      <c r="A24" s="35"/>
       <c r="B24" t="s">
         <v>220</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="11"/>
+      <c r="A25" s="35"/>
       <c r="B25" t="s">
         <v>233</v>
       </c>
@@ -5235,12 +5235,12 @@
       <c r="N25" s="4"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:14">
       <c r="C28" s="4" t="s">
@@ -5257,7 +5257,7 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="35" t="s">
         <v>240</v>
       </c>
       <c r="B29" t="s">
@@ -5277,7 +5277,7 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="11"/>
+      <c r="A30" s="35"/>
       <c r="B30" t="s">
         <v>239</v>
       </c>
@@ -5295,7 +5295,7 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="11"/>
+      <c r="A31" s="35"/>
       <c r="B31" t="s">
         <v>221</v>
       </c>
@@ -5313,7 +5313,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="35" t="s">
         <v>241</v>
       </c>
       <c r="B32" t="s">
@@ -5333,7 +5333,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="11"/>
+      <c r="A33" s="35"/>
       <c r="B33" t="s">
         <v>215</v>
       </c>
@@ -5351,7 +5351,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="11"/>
+      <c r="A34" s="35"/>
       <c r="B34" t="s">
         <v>216</v>
       </c>
@@ -5369,7 +5369,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="11"/>
+      <c r="A35" s="35"/>
       <c r="B35" t="s">
         <v>218</v>
       </c>
@@ -5387,7 +5387,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="11"/>
+      <c r="A36" s="35"/>
       <c r="B36" t="s">
         <v>217</v>
       </c>
@@ -5405,7 +5405,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="11"/>
+      <c r="A37" s="35"/>
       <c r="B37" t="s">
         <v>219</v>
       </c>
@@ -5423,7 +5423,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="11"/>
+      <c r="A38" s="35"/>
       <c r="B38" t="s">
         <v>220</v>
       </c>
@@ -5441,7 +5441,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="11"/>
+      <c r="A39" s="35"/>
       <c r="B39" t="s">
         <v>233</v>
       </c>
@@ -5459,12 +5459,12 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
     </row>
     <row r="43" spans="1:6">
       <c r="C43" s="4" t="s">
@@ -5481,7 +5481,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="35" t="s">
         <v>240</v>
       </c>
       <c r="B44" t="s">
@@ -5501,7 +5501,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="11"/>
+      <c r="A45" s="35"/>
       <c r="B45" t="s">
         <v>239</v>
       </c>
@@ -5519,7 +5519,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="11"/>
+      <c r="A46" s="35"/>
       <c r="B46" t="s">
         <v>221</v>
       </c>
@@ -5537,7 +5537,7 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="35" t="s">
         <v>241</v>
       </c>
       <c r="B47" t="s">
@@ -5557,7 +5557,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="11"/>
+      <c r="A48" s="35"/>
       <c r="B48" t="s">
         <v>215</v>
       </c>
@@ -5575,7 +5575,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="11"/>
+      <c r="A49" s="35"/>
       <c r="B49" t="s">
         <v>216</v>
       </c>
@@ -5593,7 +5593,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="11"/>
+      <c r="A50" s="35"/>
       <c r="B50" t="s">
         <v>218</v>
       </c>
@@ -5611,7 +5611,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="11"/>
+      <c r="A51" s="35"/>
       <c r="B51" t="s">
         <v>217</v>
       </c>
@@ -5629,7 +5629,7 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="11"/>
+      <c r="A52" s="35"/>
       <c r="B52" t="s">
         <v>219</v>
       </c>
@@ -5647,7 +5647,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="11"/>
+      <c r="A53" s="35"/>
       <c r="B53" t="s">
         <v>220</v>
       </c>
@@ -5665,7 +5665,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="11"/>
+      <c r="A54" s="35"/>
       <c r="B54" t="s">
         <v>233</v>
       </c>
